--- a/TaskData/Dataset_1.xlsx
+++ b/TaskData/Dataset_1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfr545\Documents\github\win-fmrib-tutorial-2024\TaskData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfr545\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{701BA052-A097-43B8-924D-FE0B8E02FC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B198B9-E05A-4A72-8918-78660529F5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1890" windowWidth="21600" windowHeight="12645" xr2:uid="{22553DCD-6AEE-4760-838C-7B08E8AF93FA}"/>
+    <workbookView xWindow="3630" yWindow="1545" windowWidth="21600" windowHeight="12645" xr2:uid="{7C665C3C-AC8C-46B5-AD26-0339D0E3742D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,45 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>XD</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>LK</t>
-  </si>
-  <si>
-    <t>OP</t>
-  </si>
-  <si>
-    <t>TY</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>val3</t>
+    <t>val1</t>
   </si>
   <si>
     <t>val2</t>
   </si>
   <si>
-    <t>val1</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Initials</t>
+    <t>val3</t>
   </si>
 </sst>
 </file>
@@ -445,165 +418,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0885F1B-E833-4FF2-8070-855254DC54CD}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144DA8D1-D90A-418A-B486-E71C5F99AD28}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.12586477681289576</v>
+      </c>
+      <c r="C2">
+        <v>5.1131421955742162E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.42300276521342195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.13369062719105074</v>
+      </c>
+      <c r="C3">
+        <v>0.40154650804359748</v>
+      </c>
+      <c r="D3">
+        <v>0.32409264891440848</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.94599498297069318</v>
+      </c>
+      <c r="C4">
+        <v>0.47745642345946715</v>
+      </c>
+      <c r="D4">
+        <v>0.6080432102606671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.91726205105061243</v>
+      </c>
+      <c r="C5">
+        <v>0.43956202168774527</v>
+      </c>
+      <c r="D5">
+        <v>0.545002312828061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.39893519243167219</v>
+      </c>
+      <c r="C6">
+        <v>0.8512984928275158</v>
+      </c>
+      <c r="D6">
+        <v>0.92002938695189185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.55594350275167526</v>
+      </c>
+      <c r="C7">
+        <v>3.7249697465078224E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.60375945253547236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.84412662966543472</v>
+      </c>
+      <c r="C8">
+        <v>0.71847087535717113</v>
+      </c>
+      <c r="D8">
+        <v>0.32671638269463432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>0.12586477681289576</v>
-      </c>
-      <c r="D2">
-        <v>5.1131421955742162E-2</v>
-      </c>
-      <c r="E2">
-        <v>0.42300276521342195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>0.13369062719105074</v>
-      </c>
-      <c r="D3">
-        <v>0.40154650804359748</v>
-      </c>
-      <c r="E3">
-        <v>0.32409264891440848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>68</v>
-      </c>
-      <c r="C4">
-        <v>0.94599498297069318</v>
-      </c>
-      <c r="D4">
-        <v>0.47745642345946715</v>
-      </c>
-      <c r="E4">
-        <v>0.6080432102606671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>74</v>
-      </c>
-      <c r="C5">
-        <v>0.91726205105061243</v>
-      </c>
-      <c r="D5">
-        <v>0.43956202168774527</v>
-      </c>
-      <c r="E5">
-        <v>0.545002312828061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>0.39893519243167219</v>
-      </c>
-      <c r="D6">
-        <v>0.8512984928275158</v>
-      </c>
-      <c r="E6">
-        <v>0.92002938695189185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>0.55594350275167526</v>
-      </c>
-      <c r="D7">
-        <v>3.7249697465078224E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.60375945253547236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>58</v>
-      </c>
-      <c r="C8">
-        <v>0.84412662966543472</v>
-      </c>
-      <c r="D8">
-        <v>0.71847087535717113</v>
-      </c>
-      <c r="E8">
-        <v>0.32671638269463432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
       <c r="B9">
-        <v>95</v>
+        <v>0.68560616190542945</v>
       </c>
       <c r="C9">
-        <v>0.68560616190542945</v>
+        <v>0.71764044401069915</v>
       </c>
       <c r="D9">
-        <v>0.71764044401069915</v>
-      </c>
-      <c r="E9">
         <v>0.30010849521203264</v>
       </c>
     </row>
